--- a/cmip6/machines/cmip6_ncc_machines.xlsx
+++ b/cmip6/machines/cmip6_ncc_machines.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Example" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Machine 1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Machine 2" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="311">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Institute Machines</t>
   </si>
@@ -970,16 +971,74 @@
   <si>
     <t xml:space="preserve">SIMIP: Sea Ice MIP</t>
   </si>
+  <si>
+    <t xml:space="preserve">Fram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Fram is a  distributed memory system which consists of 1004 dual socket and 2
+quad socket nodes, interconnected with a high-bandwidth low-latency Infiniband
+network. The interconnect network is organized in an island topology, with 9216
+cores in each island. Each standard compute node has two 16-core Intel Broadwell
+chips (2.1 GHz) and 64 GiB memory. In addition, 8 larger memory nodes with 512
+GiB RAM and 2 huge memory quad socket nodes with 6 TiB of memory is provided.
+The total number of compute cores is 32256. The system consumes 300 kW of power. It is  a national resource and not connected to NCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sigma2.no/systems#fram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenovo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NeXtScale nx360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fram is a distributed memory system which consists of 1004 dual socket and 2
+quad socket nodes, interconnected with a high-bandwidth low-latency Infiniband
+network. The interconnect network is organized in an island topology, with 9216
+cores in each island. Each standard compute node has two 16-core Intel Broadwell
+chips (2.1 GHz) and 64 GiB memory. In addition, 8 larger memory nodes with 512
+GiB RAM and 2 huge memory quad socket nodes with 6 TiB of memory is provided.
+The total number of compute cores is 32256.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5-2683v4 2.1 GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 GiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E5-2683v4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Petaflop/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -1194,6 +1253,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1314,7 +1385,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1563,6 +1634,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1642,7 +1725,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1758,8 +1841,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A385" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B398" activeCellId="0" sqref="B398"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6662,12 +6745,12 @@
       <formula1>"ALL,EXPERIMENT 1 INSTITUTE INVOLVED IN FROM THIS MIP,EXPERIMENT 2 [AS ABOVE],...,...,...,EXPERIMENT  N [FINAL ONE POSSIBLE FOR GIVEN INSTITUTE AND MIP]"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B391 B394 B401 B404" type="list">
+      <formula1>"YES,NO"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B471" type="list">
       <formula1>"ALL,EXPERIMENT 1 INSTITUTE INVOLVED IN FROM THIS MIP,EXPERIMENT 2 [AS ABOVE],...,...,LIG127k,...,...,EXPERIMENT  N [FINAL ONE POSSIBLE FOR GIVEN INSTITUTE AND MIP]"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B391 B394 B401 B404" type="list">
-      <formula1>"YES,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6688,8 +6771,4879 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A365" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A422" activeCellId="0" sqref="A422"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="37.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="43.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="38.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="57.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="248" min="5" style="14" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="249" style="15" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1023" style="15" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.08"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28"/>
+      <c r="B16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24"/>
+      <c r="B26" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="0"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="148.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="B31" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="32"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="0"/>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="33"/>
+      <c r="B36" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="33"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="33"/>
+      <c r="B42" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="62" t="n">
+        <v>41578</v>
+      </c>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="0"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24"/>
+      <c r="B57" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0"/>
+      <c r="B65" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="0"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="65.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
+      <c r="B67" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0"/>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="40.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28"/>
+      <c r="B70" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="24"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
+      <c r="F73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0"/>
+      <c r="B75" s="0"/>
+      <c r="C75" s="0"/>
+      <c r="D75" s="0"/>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="221.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+    </row>
+    <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="24"/>
+      <c r="B83" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0"/>
+      <c r="B84" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+    </row>
+    <row r="85" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0"/>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="0"/>
+      <c r="E87" s="0"/>
+      <c r="F87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+    </row>
+    <row r="89" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0"/>
+      <c r="B89" s="0"/>
+      <c r="C89" s="0"/>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+    </row>
+    <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="0"/>
+      <c r="F90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+    </row>
+    <row r="92" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="26" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+    </row>
+    <row r="93" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="0"/>
+      <c r="F94" s="27"/>
+    </row>
+    <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0"/>
+      <c r="B96" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="27"/>
+    </row>
+    <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="27"/>
+    </row>
+    <row r="100" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0"/>
+      <c r="B100" s="26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0"/>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" customFormat="false" ht="45.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="40"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="0"/>
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="41"/>
+      <c r="B103" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="43"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="27"/>
+    </row>
+    <row r="104" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" customFormat="false" ht="58.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="44"/>
+      <c r="B105" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="27"/>
+    </row>
+    <row r="106" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="0"/>
+      <c r="F107" s="27"/>
+    </row>
+    <row r="108" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108" s="43"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="27"/>
+    </row>
+    <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="44"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="0"/>
+      <c r="F109" s="27"/>
+    </row>
+    <row r="110" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="0"/>
+      <c r="F110" s="27"/>
+    </row>
+    <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="0"/>
+      <c r="F111" s="27"/>
+    </row>
+    <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="43"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="0"/>
+      <c r="F112" s="27"/>
+    </row>
+    <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="27"/>
+    </row>
+    <row r="114" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="44"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="27"/>
+    </row>
+    <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="27"/>
+    </row>
+    <row r="116" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="43"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="27"/>
+    </row>
+    <row r="117" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="48"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="27"/>
+    </row>
+    <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="48"/>
+      <c r="B118" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="27"/>
+    </row>
+    <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="48"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="0"/>
+      <c r="F119" s="27"/>
+    </row>
+    <row r="120" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="44"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="0"/>
+      <c r="F120" s="27"/>
+    </row>
+    <row r="121" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="0"/>
+      <c r="F121" s="27"/>
+    </row>
+    <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="27"/>
+    </row>
+    <row r="123" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="43"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="27"/>
+    </row>
+    <row r="124" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="44"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="27"/>
+    </row>
+    <row r="125" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="44"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="27"/>
+    </row>
+    <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="23"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="0"/>
+      <c r="F126" s="27"/>
+    </row>
+    <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C127" s="43"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="27"/>
+    </row>
+    <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="0"/>
+      <c r="F128" s="27"/>
+    </row>
+    <row r="129" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="44"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="27"/>
+    </row>
+    <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="0"/>
+      <c r="F130" s="27"/>
+    </row>
+    <row r="131" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" s="43"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="0"/>
+      <c r="F131" s="27"/>
+    </row>
+    <row r="132" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="48"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="0"/>
+      <c r="F132" s="27"/>
+    </row>
+    <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="48"/>
+      <c r="B133" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" s="43"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="0"/>
+      <c r="F133" s="27"/>
+    </row>
+    <row r="134" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="44"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="0"/>
+      <c r="F134" s="27"/>
+    </row>
+    <row r="135" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="0"/>
+      <c r="F135" s="27"/>
+    </row>
+    <row r="136" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" s="47"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="27"/>
+    </row>
+    <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="0"/>
+      <c r="F137" s="27"/>
+    </row>
+    <row r="138" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="43"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="0"/>
+      <c r="F138" s="27"/>
+    </row>
+    <row r="139" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="44"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="0"/>
+      <c r="F139" s="27"/>
+    </row>
+    <row r="140" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="27"/>
+    </row>
+    <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="0"/>
+      <c r="F141" s="27"/>
+    </row>
+    <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B142" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C142" s="43"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="27"/>
+    </row>
+    <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="0"/>
+      <c r="F143" s="27"/>
+    </row>
+    <row r="144" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="27"/>
+    </row>
+    <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C145" s="23"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="27"/>
+    </row>
+    <row r="146" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" s="43"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="27"/>
+    </row>
+    <row r="147" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="48"/>
+      <c r="B147" s="43"/>
+      <c r="C147" s="43"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="0"/>
+      <c r="F147" s="27"/>
+    </row>
+    <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="48"/>
+      <c r="B148" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="43"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="0"/>
+      <c r="F148" s="27"/>
+    </row>
+    <row r="149" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="44"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="27"/>
+    </row>
+    <row r="150" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="0"/>
+      <c r="F150" s="27"/>
+    </row>
+    <row r="151" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0"/>
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="27"/>
+    </row>
+    <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="27"/>
+    </row>
+    <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="25"/>
+      <c r="D153" s="0"/>
+      <c r="E153" s="0"/>
+      <c r="F153" s="27"/>
+    </row>
+    <row r="154" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="27"/>
+    </row>
+    <row r="155" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0"/>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="27"/>
+    </row>
+    <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="27"/>
+    </row>
+    <row r="157" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="25"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="27"/>
+    </row>
+    <row r="158" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="27"/>
+    </row>
+    <row r="159" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="27"/>
+    </row>
+    <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="23"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="27"/>
+    </row>
+    <row r="161" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C161" s="25"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="27"/>
+    </row>
+    <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0"/>
+      <c r="B162" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="0"/>
+      <c r="D162" s="0"/>
+      <c r="E162" s="0"/>
+      <c r="F162" s="27"/>
+    </row>
+    <row r="163" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="27"/>
+    </row>
+    <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" s="23"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="27"/>
+    </row>
+    <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C165" s="25"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="27"/>
+    </row>
+    <row r="166" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0"/>
+      <c r="B166" s="51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C166" s="0"/>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
+      <c r="F166" s="27"/>
+    </row>
+    <row r="167" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="27"/>
+    </row>
+    <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C168" s="23"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="27"/>
+    </row>
+    <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="25"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="27"/>
+    </row>
+    <row r="170" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="27"/>
+    </row>
+    <row r="171" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="27"/>
+    </row>
+    <row r="172" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" s="38"/>
+      <c r="D172" s="38"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="27"/>
+    </row>
+    <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="28"/>
+      <c r="B173" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="25"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="27"/>
+    </row>
+    <row r="174" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="24"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
+      <c r="F174" s="27"/>
+    </row>
+    <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="23"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="27"/>
+    </row>
+    <row r="176" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" s="25"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="27"/>
+    </row>
+    <row r="177" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="27"/>
+    </row>
+    <row r="178" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="27"/>
+    </row>
+    <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="27"/>
+    </row>
+    <row r="180" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C180" s="25"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="27"/>
+    </row>
+    <row r="181" customFormat="false" ht="106.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="0"/>
+      <c r="F181" s="27"/>
+    </row>
+    <row r="182" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0"/>
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
+      <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
+      <c r="F182" s="27"/>
+    </row>
+    <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C183" s="23"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="0"/>
+      <c r="F183" s="27"/>
+    </row>
+    <row r="184" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" s="25"/>
+      <c r="D184" s="0"/>
+      <c r="E184" s="0"/>
+      <c r="F184" s="27"/>
+    </row>
+    <row r="185" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="24"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="0"/>
+      <c r="E185" s="0"/>
+      <c r="F185" s="27"/>
+    </row>
+    <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="24"/>
+      <c r="B186" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="0"/>
+      <c r="F186" s="27"/>
+    </row>
+    <row r="187" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="27"/>
+    </row>
+    <row r="188" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0"/>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="27"/>
+    </row>
+    <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="23"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="27"/>
+    </row>
+    <row r="190" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C190" s="25"/>
+      <c r="D190" s="0"/>
+      <c r="E190" s="0"/>
+      <c r="F190" s="27"/>
+    </row>
+    <row r="191" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="27"/>
+    </row>
+    <row r="192" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0"/>
+      <c r="B192" s="0"/>
+      <c r="C192" s="0"/>
+      <c r="D192" s="0"/>
+      <c r="E192" s="0"/>
+      <c r="F192" s="27"/>
+    </row>
+    <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C193" s="23"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="0"/>
+      <c r="F193" s="27"/>
+    </row>
+    <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C194" s="25"/>
+      <c r="D194" s="0"/>
+      <c r="E194" s="0"/>
+      <c r="F194" s="27"/>
+    </row>
+    <row r="195" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="0"/>
+      <c r="F195" s="27"/>
+    </row>
+    <row r="196" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0"/>
+      <c r="B196" s="0"/>
+      <c r="C196" s="0"/>
+      <c r="D196" s="0"/>
+      <c r="E196" s="0"/>
+      <c r="F196" s="27"/>
+    </row>
+    <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="0"/>
+      <c r="F197" s="27"/>
+    </row>
+    <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C198" s="25"/>
+      <c r="D198" s="0"/>
+      <c r="E198" s="0"/>
+      <c r="F198" s="27"/>
+    </row>
+    <row r="199" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="0"/>
+      <c r="F199" s="27"/>
+    </row>
+    <row r="200" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0"/>
+      <c r="B200" s="0"/>
+      <c r="C200" s="0"/>
+      <c r="D200" s="0"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="27"/>
+    </row>
+    <row r="201" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="0"/>
+      <c r="F201" s="27"/>
+    </row>
+    <row r="202" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B202" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C202" s="25"/>
+      <c r="D202" s="0"/>
+      <c r="E202" s="0"/>
+      <c r="F202" s="27"/>
+    </row>
+    <row r="203" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="0"/>
+      <c r="F203" s="27"/>
+    </row>
+    <row r="204" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0"/>
+      <c r="B204" s="0"/>
+      <c r="C204" s="0"/>
+      <c r="D204" s="0"/>
+      <c r="E204" s="0"/>
+      <c r="F204" s="27"/>
+    </row>
+    <row r="205" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B205" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205" s="40"/>
+      <c r="D205" s="40"/>
+      <c r="E205" s="0"/>
+      <c r="F205" s="27"/>
+    </row>
+    <row r="206" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="41"/>
+      <c r="B206" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C206" s="43"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="0"/>
+      <c r="F206" s="27"/>
+    </row>
+    <row r="207" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="44"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="44"/>
+      <c r="D207" s="44"/>
+      <c r="E207" s="0"/>
+      <c r="F207" s="27"/>
+    </row>
+    <row r="208" customFormat="false" ht="76.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="44"/>
+      <c r="B208" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C208" s="45"/>
+      <c r="D208" s="45"/>
+      <c r="E208" s="0"/>
+      <c r="F208" s="27"/>
+    </row>
+    <row r="209" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B209" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" s="47"/>
+      <c r="D209" s="47"/>
+      <c r="E209" s="0"/>
+      <c r="F209" s="27"/>
+    </row>
+    <row r="210" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="0"/>
+      <c r="F210" s="27"/>
+    </row>
+    <row r="211" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C211" s="43"/>
+      <c r="D211" s="44"/>
+      <c r="E211" s="0"/>
+      <c r="F211" s="27"/>
+    </row>
+    <row r="212" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="44"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="0"/>
+      <c r="F212" s="27"/>
+    </row>
+    <row r="213" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="44"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="44"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="0"/>
+      <c r="F213" s="27"/>
+    </row>
+    <row r="214" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C214" s="23"/>
+      <c r="D214" s="23"/>
+      <c r="E214" s="0"/>
+      <c r="F214" s="27"/>
+    </row>
+    <row r="215" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B215" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C215" s="43"/>
+      <c r="D215" s="44"/>
+      <c r="E215" s="0"/>
+      <c r="F215" s="27"/>
+    </row>
+    <row r="216" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+    </row>
+    <row r="217" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="44"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+    </row>
+    <row r="218" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B218" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="0"/>
+      <c r="F218" s="27"/>
+    </row>
+    <row r="219" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B219" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C219" s="43"/>
+      <c r="D219" s="44"/>
+      <c r="E219" s="0"/>
+      <c r="F219" s="27"/>
+    </row>
+    <row r="220" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="48"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="43"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="0"/>
+      <c r="F220" s="27"/>
+    </row>
+    <row r="221" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="48"/>
+      <c r="B221" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" s="43"/>
+      <c r="D221" s="44"/>
+      <c r="E221" s="0"/>
+      <c r="F221" s="27"/>
+    </row>
+    <row r="222" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="44"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="0"/>
+      <c r="F222" s="27"/>
+    </row>
+    <row r="223" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="44"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="44"/>
+      <c r="D223" s="44"/>
+      <c r="E223" s="0"/>
+      <c r="F223" s="27"/>
+    </row>
+    <row r="224" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B224" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="0"/>
+      <c r="F224" s="27"/>
+    </row>
+    <row r="225" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="23"/>
+      <c r="D225" s="23"/>
+      <c r="E225" s="0"/>
+      <c r="F225" s="27"/>
+    </row>
+    <row r="226" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B226" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C226" s="43"/>
+      <c r="D226" s="44"/>
+      <c r="E226" s="0"/>
+      <c r="F226" s="27"/>
+    </row>
+    <row r="227" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="44"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="0"/>
+      <c r="F227" s="27"/>
+    </row>
+    <row r="228" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="44"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="44"/>
+      <c r="D228" s="44"/>
+      <c r="E228" s="0"/>
+      <c r="F228" s="27"/>
+    </row>
+    <row r="229" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B229" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C229" s="23"/>
+      <c r="D229" s="23"/>
+      <c r="E229" s="0"/>
+      <c r="F229" s="27"/>
+    </row>
+    <row r="230" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B230" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" s="43"/>
+      <c r="D230" s="44"/>
+      <c r="E230" s="0"/>
+      <c r="F230" s="27"/>
+    </row>
+    <row r="231" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="0"/>
+      <c r="F231" s="27"/>
+    </row>
+    <row r="232" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="44"/>
+      <c r="B232" s="44"/>
+      <c r="C232" s="44"/>
+      <c r="D232" s="44"/>
+      <c r="E232" s="0"/>
+      <c r="F232" s="27"/>
+    </row>
+    <row r="233" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B233" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C233" s="23"/>
+      <c r="D233" s="23"/>
+      <c r="E233" s="0"/>
+      <c r="F233" s="27"/>
+    </row>
+    <row r="234" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C234" s="43"/>
+      <c r="D234" s="44"/>
+      <c r="E234" s="0"/>
+      <c r="F234" s="27"/>
+    </row>
+    <row r="235" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="48"/>
+      <c r="B235" s="43"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="44"/>
+      <c r="E235" s="0"/>
+      <c r="F235" s="27"/>
+    </row>
+    <row r="236" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="48"/>
+      <c r="B236" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" s="43"/>
+      <c r="D236" s="44"/>
+      <c r="E236" s="0"/>
+      <c r="F236" s="27"/>
+    </row>
+    <row r="237" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="44"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="0"/>
+      <c r="F237" s="27"/>
+    </row>
+    <row r="238" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="44"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="44"/>
+      <c r="D238" s="44"/>
+      <c r="E238" s="0"/>
+      <c r="F238" s="27"/>
+    </row>
+    <row r="239" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A239" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B239" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C239" s="47"/>
+      <c r="D239" s="47"/>
+      <c r="E239" s="0"/>
+      <c r="F239" s="27"/>
+    </row>
+    <row r="240" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B240" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="0"/>
+      <c r="F240" s="27"/>
+    </row>
+    <row r="241" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C241" s="43"/>
+      <c r="D241" s="44"/>
+      <c r="E241" s="0"/>
+      <c r="F241" s="27"/>
+    </row>
+    <row r="242" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="44"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="0"/>
+      <c r="F242" s="27"/>
+    </row>
+    <row r="243" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="44"/>
+      <c r="B243" s="44"/>
+      <c r="C243" s="44"/>
+      <c r="D243" s="44"/>
+      <c r="E243" s="0"/>
+      <c r="F243" s="27"/>
+    </row>
+    <row r="244" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B244" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C244" s="23"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="0"/>
+      <c r="F244" s="27"/>
+    </row>
+    <row r="245" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C245" s="43"/>
+      <c r="D245" s="44"/>
+      <c r="E245" s="0"/>
+      <c r="F245" s="27"/>
+    </row>
+    <row r="246" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B246" s="26"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="0"/>
+      <c r="F246" s="27"/>
+    </row>
+    <row r="247" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="44"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="44"/>
+      <c r="E247" s="0"/>
+      <c r="F247" s="27"/>
+    </row>
+    <row r="248" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B248" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C248" s="23"/>
+      <c r="D248" s="23"/>
+      <c r="E248" s="0"/>
+      <c r="F248" s="27"/>
+    </row>
+    <row r="249" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B249" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C249" s="43"/>
+      <c r="D249" s="44"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="27"/>
+    </row>
+    <row r="250" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="48"/>
+      <c r="B250" s="43"/>
+      <c r="C250" s="43"/>
+      <c r="D250" s="44"/>
+      <c r="E250" s="0"/>
+      <c r="F250" s="27"/>
+    </row>
+    <row r="251" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="48"/>
+      <c r="B251" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251" s="43"/>
+      <c r="D251" s="44"/>
+      <c r="E251" s="0"/>
+      <c r="F251" s="27"/>
+    </row>
+    <row r="252" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="44"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="0"/>
+      <c r="F252" s="27"/>
+    </row>
+    <row r="253" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="44"/>
+      <c r="B253" s="44"/>
+      <c r="C253" s="44"/>
+      <c r="D253" s="44"/>
+      <c r="E253" s="0"/>
+      <c r="F253" s="27"/>
+    </row>
+    <row r="254" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0"/>
+      <c r="B254" s="0"/>
+      <c r="C254" s="0"/>
+      <c r="D254" s="0"/>
+      <c r="E254" s="0"/>
+      <c r="F254" s="27"/>
+    </row>
+    <row r="255" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B255" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C255" s="23"/>
+      <c r="D255" s="23"/>
+      <c r="E255" s="0"/>
+      <c r="F255" s="27"/>
+    </row>
+    <row r="256" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B256" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C256" s="25"/>
+      <c r="D256" s="0"/>
+      <c r="E256" s="0"/>
+      <c r="F256" s="27"/>
+    </row>
+    <row r="257" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0"/>
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
+      <c r="E257" s="0"/>
+      <c r="F257" s="27"/>
+    </row>
+    <row r="258" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0"/>
+      <c r="B258" s="0"/>
+      <c r="C258" s="0"/>
+      <c r="D258" s="0"/>
+      <c r="E258" s="0"/>
+      <c r="F258" s="27"/>
+    </row>
+    <row r="259" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B259" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C259" s="23"/>
+      <c r="D259" s="23"/>
+      <c r="E259" s="0"/>
+      <c r="F259" s="27"/>
+    </row>
+    <row r="260" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B260" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C260" s="25"/>
+      <c r="D260" s="0"/>
+      <c r="E260" s="0"/>
+      <c r="F260" s="27"/>
+    </row>
+    <row r="261" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="0"/>
+      <c r="F261" s="27"/>
+    </row>
+    <row r="262" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0"/>
+      <c r="B262" s="0"/>
+      <c r="C262" s="0"/>
+      <c r="D262" s="0"/>
+      <c r="E262" s="0"/>
+      <c r="F262" s="27"/>
+    </row>
+    <row r="263" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B263" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C263" s="23"/>
+      <c r="D263" s="23"/>
+      <c r="E263" s="0"/>
+      <c r="F263" s="27"/>
+    </row>
+    <row r="264" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C264" s="25"/>
+      <c r="D264" s="0"/>
+      <c r="E264" s="0"/>
+      <c r="F264" s="27"/>
+    </row>
+    <row r="265" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0"/>
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="E265" s="0"/>
+      <c r="F265" s="27"/>
+    </row>
+    <row r="266" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0"/>
+      <c r="B266" s="0"/>
+      <c r="C266" s="0"/>
+      <c r="D266" s="0"/>
+      <c r="E266" s="0"/>
+      <c r="F266" s="27"/>
+    </row>
+    <row r="267" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B267" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C267" s="23"/>
+      <c r="D267" s="23"/>
+      <c r="E267" s="0"/>
+      <c r="F267" s="27"/>
+    </row>
+    <row r="268" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B268" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C268" s="25"/>
+      <c r="D268" s="0"/>
+      <c r="E268" s="0"/>
+      <c r="F268" s="27"/>
+    </row>
+    <row r="269" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
+      <c r="E269" s="0"/>
+      <c r="F269" s="27"/>
+    </row>
+    <row r="270" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0"/>
+      <c r="B270" s="0"/>
+      <c r="C270" s="0"/>
+      <c r="D270" s="0"/>
+      <c r="E270" s="0"/>
+      <c r="F270" s="27"/>
+    </row>
+    <row r="271" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B271" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C271" s="23"/>
+      <c r="D271" s="23"/>
+      <c r="E271" s="0"/>
+      <c r="F271" s="27"/>
+    </row>
+    <row r="272" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B272" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C272" s="25"/>
+      <c r="D272" s="0"/>
+      <c r="E272" s="0"/>
+      <c r="F272" s="27"/>
+    </row>
+    <row r="273" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0"/>
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="0"/>
+      <c r="F273" s="27"/>
+    </row>
+    <row r="274" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0"/>
+      <c r="B274" s="0"/>
+      <c r="C274" s="0"/>
+      <c r="D274" s="0"/>
+      <c r="E274" s="27"/>
+      <c r="F274" s="27"/>
+    </row>
+    <row r="275" customFormat="false" ht="47.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A275" s="16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B275" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="F275" s="27"/>
+    </row>
+    <row r="276" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0"/>
+      <c r="B276" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C276" s="0"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="0"/>
+      <c r="F276" s="27"/>
+    </row>
+    <row r="277" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0"/>
+      <c r="B277" s="0"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="0"/>
+      <c r="F277" s="27"/>
+    </row>
+    <row r="278" customFormat="false" ht="60.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0"/>
+      <c r="B278" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C278" s="36"/>
+      <c r="D278" s="36"/>
+      <c r="E278" s="0"/>
+      <c r="F278" s="27"/>
+    </row>
+    <row r="279" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0"/>
+      <c r="B279" s="0"/>
+      <c r="C279" s="0"/>
+      <c r="D279" s="0"/>
+      <c r="E279" s="0"/>
+      <c r="F279" s="27"/>
+    </row>
+    <row r="280" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A280" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B280" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C280" s="38"/>
+      <c r="D280" s="38"/>
+      <c r="E280" s="0"/>
+      <c r="F280" s="27"/>
+    </row>
+    <row r="281" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="28"/>
+      <c r="B281" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C281" s="25"/>
+      <c r="D281" s="0"/>
+      <c r="E281" s="0"/>
+      <c r="F281" s="27"/>
+    </row>
+    <row r="282" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="24"/>
+      <c r="B282" s="25"/>
+      <c r="C282" s="25"/>
+      <c r="D282" s="0"/>
+      <c r="E282" s="0"/>
+      <c r="F282" s="27"/>
+    </row>
+    <row r="283" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B283" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C283" s="23"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="0"/>
+      <c r="F283" s="27"/>
+    </row>
+    <row r="284" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C284" s="25"/>
+      <c r="D284" s="0"/>
+      <c r="E284" s="0"/>
+      <c r="F284" s="27"/>
+    </row>
+    <row r="285" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0"/>
+      <c r="B285" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C285" s="31"/>
+      <c r="D285" s="31"/>
+      <c r="E285" s="0"/>
+      <c r="F285" s="27"/>
+    </row>
+    <row r="286" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0"/>
+      <c r="B286" s="0"/>
+      <c r="C286" s="0"/>
+      <c r="D286" s="0"/>
+      <c r="E286" s="0"/>
+      <c r="F286" s="27"/>
+    </row>
+    <row r="287" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B287" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C287" s="23"/>
+      <c r="D287" s="23"/>
+      <c r="E287" s="0"/>
+      <c r="F287" s="27"/>
+    </row>
+    <row r="288" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B288" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C288" s="25"/>
+      <c r="D288" s="0"/>
+      <c r="E288" s="0"/>
+      <c r="F288" s="27"/>
+    </row>
+    <row r="289" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="33"/>
+      <c r="B289" s="25"/>
+      <c r="C289" s="25"/>
+      <c r="D289" s="0"/>
+      <c r="E289" s="0"/>
+      <c r="F289" s="27"/>
+    </row>
+    <row r="290" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="33"/>
+      <c r="B290" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C290" s="25"/>
+      <c r="D290" s="0"/>
+      <c r="E290" s="0"/>
+      <c r="F290" s="27"/>
+    </row>
+    <row r="291" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0"/>
+      <c r="B291" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C291" s="31"/>
+      <c r="D291" s="31"/>
+      <c r="E291" s="0"/>
+      <c r="F291" s="27"/>
+    </row>
+    <row r="292" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="31"/>
+      <c r="E292" s="0"/>
+      <c r="F292" s="27"/>
+    </row>
+    <row r="293" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0"/>
+      <c r="B293" s="31"/>
+      <c r="C293" s="31"/>
+      <c r="D293" s="31"/>
+      <c r="E293" s="0"/>
+      <c r="F293" s="27"/>
+    </row>
+    <row r="294" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0"/>
+      <c r="B294" s="0"/>
+      <c r="C294" s="0"/>
+      <c r="D294" s="0"/>
+      <c r="E294" s="0"/>
+      <c r="F294" s="27"/>
+    </row>
+    <row r="295" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B295" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C295" s="23"/>
+      <c r="D295" s="23"/>
+      <c r="E295" s="0"/>
+      <c r="F295" s="27"/>
+    </row>
+    <row r="296" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B296" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C296" s="25"/>
+      <c r="D296" s="0"/>
+      <c r="E296" s="0"/>
+      <c r="F296" s="27"/>
+    </row>
+    <row r="297" customFormat="false" ht="117" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
+      <c r="E297" s="0"/>
+      <c r="F297" s="27"/>
+    </row>
+    <row r="298" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0"/>
+      <c r="B298" s="0"/>
+      <c r="C298" s="0"/>
+      <c r="D298" s="0"/>
+      <c r="E298" s="0"/>
+    </row>
+    <row r="299" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B299" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C299" s="23"/>
+      <c r="D299" s="23"/>
+      <c r="E299" s="0"/>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B300" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C300" s="25"/>
+      <c r="D300" s="0"/>
+      <c r="E300" s="0"/>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="28"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="0"/>
+      <c r="E301" s="0"/>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="28"/>
+      <c r="B302" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C302" s="25"/>
+      <c r="D302" s="0"/>
+      <c r="E302" s="0"/>
+    </row>
+    <row r="303" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A303" s="28"/>
+      <c r="B303" s="31"/>
+      <c r="C303" s="31"/>
+      <c r="D303" s="31"/>
+      <c r="E303" s="0"/>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0"/>
+      <c r="B304" s="0"/>
+      <c r="C304" s="0"/>
+      <c r="D304" s="0"/>
+      <c r="E304" s="0"/>
+    </row>
+    <row r="305" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B305" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C305" s="23"/>
+      <c r="D305" s="23"/>
+      <c r="E305" s="0"/>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B306" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C306" s="25"/>
+      <c r="D306" s="0"/>
+      <c r="E306" s="0"/>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="24"/>
+      <c r="B307" s="25"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="0"/>
+      <c r="E307" s="0"/>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="24"/>
+      <c r="B308" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C308" s="25"/>
+      <c r="D308" s="0"/>
+      <c r="E308" s="0"/>
+    </row>
+    <row r="309" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0"/>
+      <c r="B309" s="31"/>
+      <c r="C309" s="31"/>
+      <c r="D309" s="31"/>
+      <c r="E309" s="0"/>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0"/>
+      <c r="B310" s="0"/>
+      <c r="C310" s="0"/>
+      <c r="D310" s="0"/>
+      <c r="E310" s="0"/>
+    </row>
+    <row r="311" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B311" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C311" s="38"/>
+      <c r="D311" s="38"/>
+      <c r="E311" s="0"/>
+    </row>
+    <row r="312" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="28"/>
+      <c r="B312" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C312" s="25"/>
+      <c r="D312" s="0"/>
+      <c r="E312" s="0"/>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="24"/>
+      <c r="B313" s="25"/>
+      <c r="C313" s="25"/>
+      <c r="D313" s="0"/>
+      <c r="E313" s="0"/>
+    </row>
+    <row r="314" customFormat="false" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A314" s="24"/>
+      <c r="B314" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C314" s="52"/>
+      <c r="D314" s="52"/>
+      <c r="E314" s="0"/>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="24"/>
+      <c r="B315" s="25"/>
+      <c r="C315" s="25"/>
+      <c r="D315" s="0"/>
+      <c r="E315" s="0"/>
+    </row>
+    <row r="316" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B316" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C316" s="23"/>
+      <c r="D316" s="23"/>
+      <c r="E316" s="0"/>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C317" s="25"/>
+      <c r="D317" s="0"/>
+      <c r="E317" s="0"/>
+    </row>
+    <row r="318" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="31"/>
+      <c r="D318" s="31"/>
+      <c r="E318" s="0"/>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0"/>
+      <c r="B319" s="0"/>
+      <c r="C319" s="0"/>
+      <c r="D319" s="0"/>
+      <c r="E319" s="0"/>
+    </row>
+    <row r="320" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B320" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C320" s="23"/>
+      <c r="D320" s="23"/>
+      <c r="E320" s="0"/>
+    </row>
+    <row r="321" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A321" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B321" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C321" s="25"/>
+      <c r="D321" s="0"/>
+      <c r="E321" s="0"/>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="33"/>
+      <c r="B322" s="25"/>
+      <c r="C322" s="25"/>
+      <c r="D322" s="0"/>
+      <c r="E322" s="0"/>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="33"/>
+      <c r="B323" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C323" s="25"/>
+      <c r="D323" s="0"/>
+      <c r="E323" s="0"/>
+    </row>
+    <row r="324" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="31"/>
+      <c r="D324" s="31"/>
+      <c r="E324" s="0"/>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0"/>
+      <c r="B325" s="0"/>
+      <c r="C325" s="0"/>
+      <c r="D325" s="0"/>
+      <c r="E325" s="0"/>
+    </row>
+    <row r="326" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B326" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326" s="23"/>
+      <c r="D326" s="23"/>
+      <c r="E326" s="0"/>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="C327" s="25"/>
+      <c r="D327" s="0"/>
+      <c r="E327" s="0"/>
+    </row>
+    <row r="328" customFormat="false" ht="114.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0"/>
+      <c r="B328" s="31"/>
+      <c r="C328" s="31"/>
+      <c r="D328" s="31"/>
+      <c r="E328" s="0"/>
+    </row>
+    <row r="329" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0"/>
+      <c r="B329" s="0"/>
+      <c r="C329" s="0"/>
+      <c r="D329" s="0"/>
+      <c r="E329" s="0"/>
+    </row>
+    <row r="330" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B330" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C330" s="23"/>
+      <c r="D330" s="23"/>
+      <c r="E330" s="0"/>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B331" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C331" s="25"/>
+      <c r="D331" s="0"/>
+      <c r="E331" s="0"/>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="28"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
+      <c r="D332" s="0"/>
+      <c r="E332" s="0"/>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="28"/>
+      <c r="B333" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C333" s="25"/>
+      <c r="D333" s="0"/>
+      <c r="E333" s="0"/>
+    </row>
+    <row r="334" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A334" s="28"/>
+      <c r="B334" s="31"/>
+      <c r="C334" s="31"/>
+      <c r="D334" s="31"/>
+      <c r="E334" s="0"/>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0"/>
+      <c r="B335" s="0"/>
+      <c r="C335" s="0"/>
+      <c r="D335" s="0"/>
+      <c r="E335" s="0"/>
+    </row>
+    <row r="336" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B336" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C336" s="23"/>
+      <c r="D336" s="23"/>
+      <c r="E336" s="0"/>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B337" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C337" s="25"/>
+      <c r="D337" s="0"/>
+      <c r="E337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="24"/>
+      <c r="B338" s="25"/>
+      <c r="C338" s="25"/>
+      <c r="D338" s="0"/>
+      <c r="E338" s="0"/>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="24"/>
+      <c r="B339" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C339" s="25"/>
+      <c r="D339" s="0"/>
+      <c r="E339" s="0"/>
+    </row>
+    <row r="340" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0"/>
+      <c r="B340" s="31"/>
+      <c r="C340" s="31"/>
+      <c r="D340" s="31"/>
+      <c r="E340" s="0"/>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0"/>
+      <c r="B341" s="0"/>
+      <c r="C341" s="0"/>
+      <c r="D341" s="0"/>
+    </row>
+    <row r="342" customFormat="false" ht="43.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A342" s="16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="B342" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C342" s="17"/>
+      <c r="D342" s="17"/>
+    </row>
+    <row r="343" customFormat="false" ht="28.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0"/>
+      <c r="B343" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C343" s="0"/>
+      <c r="D343" s="0"/>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0"/>
+      <c r="B344" s="0"/>
+      <c r="C344" s="0"/>
+      <c r="D344" s="0"/>
+    </row>
+    <row r="345" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B345" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C345" s="23"/>
+      <c r="D345" s="23"/>
+      <c r="E345" s="0"/>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B346" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C346" s="25"/>
+      <c r="D346" s="0"/>
+      <c r="E346" s="0"/>
+    </row>
+    <row r="347" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0"/>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
+      <c r="D347" s="26"/>
+      <c r="E347" s="0"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0"/>
+      <c r="B348" s="0"/>
+      <c r="C348" s="0"/>
+      <c r="D348" s="0"/>
+      <c r="E348" s="0"/>
+    </row>
+    <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C349" s="23"/>
+      <c r="D349" s="23"/>
+      <c r="E349" s="0"/>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B350" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C350" s="25"/>
+      <c r="D350" s="0"/>
+      <c r="E350" s="0"/>
+    </row>
+    <row r="351" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="31"/>
+      <c r="D351" s="31"/>
+      <c r="E351" s="0"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0"/>
+      <c r="B352" s="0"/>
+      <c r="C352" s="0"/>
+      <c r="D352" s="0"/>
+      <c r="E352" s="0"/>
+    </row>
+    <row r="353" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B353" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C353" s="23"/>
+      <c r="D353" s="23"/>
+      <c r="E353" s="0"/>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B354" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C354" s="25"/>
+      <c r="D354" s="0"/>
+      <c r="E354" s="0"/>
+    </row>
+    <row r="355" customFormat="false" ht="151.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0"/>
+      <c r="B355" s="31"/>
+      <c r="C355" s="31"/>
+      <c r="D355" s="31"/>
+      <c r="E355" s="0"/>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0"/>
+      <c r="B356" s="0"/>
+      <c r="C356" s="0"/>
+      <c r="D356" s="0"/>
+      <c r="E356" s="0"/>
+    </row>
+    <row r="357" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="B357" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C357" s="23"/>
+      <c r="D357" s="23"/>
+      <c r="E357" s="0"/>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B358" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C358" s="25"/>
+      <c r="D358" s="0"/>
+      <c r="E358" s="0"/>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="24"/>
+      <c r="B359" s="25"/>
+      <c r="C359" s="25"/>
+      <c r="D359" s="0"/>
+      <c r="E359" s="0"/>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="24"/>
+      <c r="B360" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360" s="25"/>
+      <c r="D360" s="0"/>
+      <c r="E360" s="0"/>
+    </row>
+    <row r="361" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0"/>
+      <c r="B361" s="31"/>
+      <c r="C361" s="31"/>
+      <c r="D361" s="31"/>
+      <c r="E361" s="0"/>
+    </row>
+    <row r="363" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A363" s="16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B363" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C363" s="17"/>
+      <c r="D363" s="17"/>
+    </row>
+    <row r="364" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0"/>
+      <c r="B364" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C364" s="0"/>
+      <c r="D364" s="0"/>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0"/>
+      <c r="B365" s="0"/>
+      <c r="C365" s="0"/>
+      <c r="D365" s="0"/>
+    </row>
+    <row r="366" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B366" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C366" s="23"/>
+      <c r="D366" s="23"/>
+    </row>
+    <row r="367" customFormat="false" ht="21.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A367" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B367" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C367" s="25"/>
+      <c r="D367" s="0"/>
+    </row>
+    <row r="368" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0"/>
+      <c r="B368" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="C368" s="26"/>
+      <c r="D368" s="26"/>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0"/>
+      <c r="B369" s="0"/>
+      <c r="C369" s="0"/>
+      <c r="D369" s="0"/>
+    </row>
+    <row r="370" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="B370" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C370" s="23"/>
+      <c r="D370" s="23"/>
+    </row>
+    <row r="371" customFormat="false" ht="23.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A371" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B371" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C371" s="25"/>
+      <c r="D371" s="0"/>
+    </row>
+    <row r="372" customFormat="false" ht="22.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="31"/>
+      <c r="D372" s="31"/>
+    </row>
+    <row r="373" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="35.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A374" s="16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C374" s="17"/>
+      <c r="D374" s="17"/>
+    </row>
+    <row r="375" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0"/>
+      <c r="B375" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C375" s="0"/>
+      <c r="D375" s="21"/>
+    </row>
+    <row r="376" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0"/>
+      <c r="B376" s="18"/>
+      <c r="C376" s="0"/>
+      <c r="D376" s="21"/>
+    </row>
+    <row r="377" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A377" s="24"/>
+      <c r="B377" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C377" s="29"/>
+      <c r="D377" s="29"/>
+    </row>
+    <row r="378" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0"/>
+      <c r="B378" s="0"/>
+      <c r="C378" s="0"/>
+      <c r="D378" s="0"/>
+    </row>
+    <row r="379" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A379" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B379" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C379" s="23"/>
+      <c r="D379" s="23"/>
+    </row>
+    <row r="380" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A380" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B380" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C380" s="29"/>
+      <c r="D380" s="29"/>
+    </row>
+    <row r="381" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A381" s="30"/>
+      <c r="B381" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C381" s="31"/>
+      <c r="D381" s="31"/>
+    </row>
+    <row r="382" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A382" s="53"/>
+      <c r="B382" s="54"/>
+      <c r="C382" s="54"/>
+      <c r="D382" s="54"/>
+    </row>
+    <row r="383" customFormat="false" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A383" s="28"/>
+      <c r="B383" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C383" s="52"/>
+      <c r="D383" s="52"/>
+    </row>
+    <row r="384" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A384" s="32"/>
+      <c r="B384" s="25"/>
+      <c r="C384" s="25"/>
+      <c r="D384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A385" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B385" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C385" s="55"/>
+      <c r="D385" s="55"/>
+    </row>
+    <row r="386" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A386" s="24"/>
+      <c r="B386" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C386" s="25"/>
+      <c r="D386" s="0"/>
+    </row>
+    <row r="387" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A387" s="24"/>
+      <c r="B387" s="18"/>
+      <c r="C387" s="25"/>
+      <c r="D387" s="0"/>
+    </row>
+    <row r="388" customFormat="false" ht="43.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A388" s="24"/>
+      <c r="B388" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="C388" s="29"/>
+      <c r="D388" s="29"/>
+    </row>
+    <row r="389" customFormat="false" ht="100" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A389" s="24"/>
+      <c r="B389" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C389" s="56"/>
+      <c r="D389" s="56"/>
+    </row>
+    <row r="390" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A390" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="B390" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C390" s="23"/>
+      <c r="D390" s="23"/>
+    </row>
+    <row r="391" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A391" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B391" s="31"/>
+      <c r="C391" s="31"/>
+      <c r="D391" s="31"/>
+    </row>
+    <row r="392" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="33"/>
+      <c r="B392" s="25"/>
+      <c r="C392" s="25"/>
+      <c r="D392" s="0"/>
+    </row>
+    <row r="393" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B393" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C393" s="23"/>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B394" s="31"/>
+      <c r="C394" s="31"/>
+      <c r="D394" s="31"/>
+    </row>
+    <row r="395" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="28"/>
+      <c r="B395" s="25"/>
+      <c r="C395" s="25"/>
+      <c r="D395" s="0"/>
+    </row>
+    <row r="396" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B396" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C396" s="57"/>
+      <c r="D396" s="58"/>
+    </row>
+    <row r="397" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B397" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C397" s="57"/>
+      <c r="D397" s="58"/>
+    </row>
+    <row r="398" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A398" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B398" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C398" s="57"/>
+      <c r="D398" s="58"/>
+    </row>
+    <row r="399" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A399" s="28"/>
+      <c r="B399" s="25"/>
+      <c r="C399" s="25"/>
+      <c r="D399" s="0"/>
+    </row>
+    <row r="400" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A400" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B400" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C400" s="23"/>
+      <c r="D400" s="23"/>
+    </row>
+    <row r="401" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A401" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B401" s="31"/>
+      <c r="C401" s="31"/>
+      <c r="D401" s="31"/>
+    </row>
+    <row r="402" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A402" s="33"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
+      <c r="D402" s="0"/>
+    </row>
+    <row r="403" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A403" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B403" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C403" s="23"/>
+      <c r="D403" s="23"/>
+    </row>
+    <row r="404" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A404" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B404" s="31"/>
+      <c r="C404" s="31"/>
+      <c r="D404" s="31"/>
+    </row>
+    <row r="405" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A405" s="32"/>
+      <c r="B405" s="25"/>
+      <c r="C405" s="25"/>
+      <c r="D405" s="0"/>
+    </row>
+    <row r="406" customFormat="false" ht="34.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A406" s="16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B406" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C406" s="17"/>
+      <c r="D406" s="17"/>
+    </row>
+    <row r="407" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0"/>
+      <c r="B407" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C407" s="0"/>
+      <c r="D407" s="21"/>
+    </row>
+    <row r="408" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0"/>
+      <c r="B408" s="18"/>
+      <c r="C408" s="0"/>
+      <c r="D408" s="21"/>
+    </row>
+    <row r="409" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A409" s="24"/>
+      <c r="B409" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C409" s="29"/>
+      <c r="D409" s="29"/>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0"/>
+      <c r="B410" s="0"/>
+      <c r="C410" s="0"/>
+      <c r="D410" s="0"/>
+    </row>
+    <row r="411" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B411" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C411" s="23"/>
+      <c r="D411" s="23"/>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B412" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C412" s="29"/>
+      <c r="D412" s="29"/>
+    </row>
+    <row r="413" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A413" s="30"/>
+      <c r="B413" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="C413" s="31"/>
+      <c r="D413" s="31"/>
+    </row>
+    <row r="414" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="53"/>
+      <c r="B414" s="54"/>
+      <c r="C414" s="54"/>
+      <c r="D414" s="54"/>
+    </row>
+    <row r="415" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="28"/>
+      <c r="B415" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C415" s="52"/>
+      <c r="D415" s="52"/>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="32"/>
+      <c r="B416" s="25"/>
+      <c r="C416" s="25"/>
+      <c r="D416" s="0"/>
+    </row>
+    <row r="417" customFormat="false" ht="33.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A417" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B417" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C417" s="55"/>
+      <c r="D417" s="55"/>
+    </row>
+    <row r="418" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="24"/>
+      <c r="B418" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C418" s="25"/>
+      <c r="D418" s="0"/>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="24"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="25"/>
+      <c r="D419" s="0"/>
+    </row>
+    <row r="420" customFormat="false" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="24"/>
+      <c r="B420" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="C420" s="52"/>
+      <c r="D420" s="52"/>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="24"/>
+      <c r="B421" s="25"/>
+      <c r="C421" s="25"/>
+      <c r="D421" s="0"/>
+    </row>
+    <row r="422" customFormat="false" ht="64.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="24"/>
+      <c r="B422" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C422" s="29"/>
+      <c r="D422" s="29"/>
+    </row>
+    <row r="423" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="24"/>
+      <c r="B423" s="29"/>
+      <c r="C423" s="29"/>
+      <c r="D423" s="29"/>
+    </row>
+    <row r="424" customFormat="false" ht="64.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="24"/>
+      <c r="B424" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="C424" s="56"/>
+      <c r="D424" s="56"/>
+    </row>
+    <row r="425" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="B425" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C425" s="23"/>
+      <c r="D425" s="23"/>
+    </row>
+    <row r="426" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B426" s="31"/>
+      <c r="C426" s="31"/>
+      <c r="D426" s="31"/>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="33"/>
+      <c r="B427" s="25"/>
+      <c r="C427" s="25"/>
+      <c r="D427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="B428" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C428" s="23"/>
+      <c r="D428" s="23"/>
+    </row>
+    <row r="429" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B429" s="31"/>
+      <c r="C429" s="31"/>
+      <c r="D429" s="31"/>
+    </row>
+    <row r="430" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="34"/>
+      <c r="B430" s="59"/>
+      <c r="C430" s="59"/>
+      <c r="D430" s="59"/>
+    </row>
+    <row r="431" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B431" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="C431" s="23"/>
+      <c r="D431" s="23"/>
+    </row>
+    <row r="432" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B432" s="31"/>
+      <c r="C432" s="31"/>
+      <c r="D432" s="31"/>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="24"/>
+      <c r="B433" s="25"/>
+      <c r="C433" s="25"/>
+      <c r="D433" s="0"/>
+    </row>
+    <row r="434" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B434" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C434" s="23"/>
+      <c r="D434" s="23"/>
+    </row>
+    <row r="435" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B435" s="31"/>
+      <c r="C435" s="31"/>
+      <c r="D435" s="31"/>
+    </row>
+    <row r="436" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0"/>
+      <c r="B436" s="60"/>
+      <c r="C436" s="60"/>
+      <c r="D436" s="60"/>
+    </row>
+    <row r="437" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B437" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C437" s="23"/>
+      <c r="D437" s="23"/>
+    </row>
+    <row r="438" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B438" s="31"/>
+      <c r="C438" s="31"/>
+      <c r="D438" s="31"/>
+    </row>
+    <row r="439" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0"/>
+      <c r="B439" s="60"/>
+      <c r="C439" s="60"/>
+      <c r="D439" s="60"/>
+    </row>
+    <row r="440" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B440" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C440" s="23"/>
+      <c r="D440" s="23"/>
+    </row>
+    <row r="441" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B441" s="31"/>
+      <c r="C441" s="31"/>
+      <c r="D441" s="31"/>
+    </row>
+    <row r="442" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0"/>
+      <c r="B442" s="60"/>
+      <c r="C442" s="60"/>
+      <c r="D442" s="60"/>
+    </row>
+    <row r="443" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B443" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C443" s="23"/>
+      <c r="D443" s="23"/>
+    </row>
+    <row r="444" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B444" s="31"/>
+      <c r="C444" s="31"/>
+      <c r="D444" s="31"/>
+    </row>
+    <row r="445" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0"/>
+      <c r="B445" s="60"/>
+      <c r="C445" s="60"/>
+      <c r="D445" s="60"/>
+    </row>
+    <row r="446" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B446" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C446" s="23"/>
+      <c r="D446" s="23"/>
+    </row>
+    <row r="447" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B447" s="31"/>
+      <c r="C447" s="31"/>
+      <c r="D447" s="31"/>
+    </row>
+    <row r="448" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0"/>
+      <c r="B448" s="60"/>
+      <c r="C448" s="60"/>
+      <c r="D448" s="60"/>
+    </row>
+    <row r="449" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B449" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C449" s="23"/>
+      <c r="D449" s="23"/>
+    </row>
+    <row r="450" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B450" s="31"/>
+      <c r="C450" s="31"/>
+      <c r="D450" s="31"/>
+    </row>
+    <row r="451" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0"/>
+      <c r="B451" s="60"/>
+      <c r="C451" s="60"/>
+      <c r="D451" s="60"/>
+    </row>
+    <row r="452" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="B452" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C452" s="23"/>
+      <c r="D452" s="23"/>
+    </row>
+    <row r="453" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B453" s="31"/>
+      <c r="C453" s="31"/>
+      <c r="D453" s="31"/>
+    </row>
+    <row r="454" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="0"/>
+      <c r="B454" s="60"/>
+      <c r="C454" s="60"/>
+      <c r="D454" s="60"/>
+    </row>
+    <row r="455" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B455" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C455" s="23"/>
+      <c r="D455" s="23"/>
+    </row>
+    <row r="456" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B456" s="31"/>
+      <c r="C456" s="31"/>
+      <c r="D456" s="31"/>
+    </row>
+    <row r="457" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="0"/>
+      <c r="B457" s="60"/>
+      <c r="C457" s="60"/>
+      <c r="D457" s="60"/>
+    </row>
+    <row r="458" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B458" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C458" s="23"/>
+      <c r="D458" s="23"/>
+    </row>
+    <row r="459" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B459" s="31"/>
+      <c r="C459" s="31"/>
+      <c r="D459" s="31"/>
+    </row>
+    <row r="460" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="0"/>
+      <c r="B460" s="60"/>
+      <c r="C460" s="60"/>
+      <c r="D460" s="60"/>
+    </row>
+    <row r="461" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B461" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C461" s="23"/>
+      <c r="D461" s="23"/>
+    </row>
+    <row r="462" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B462" s="31"/>
+      <c r="C462" s="31"/>
+      <c r="D462" s="31"/>
+    </row>
+    <row r="463" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0"/>
+      <c r="B463" s="60"/>
+      <c r="C463" s="60"/>
+      <c r="D463" s="60"/>
+    </row>
+    <row r="464" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B464" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C464" s="23"/>
+      <c r="D464" s="23"/>
+    </row>
+    <row r="465" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B465" s="31"/>
+      <c r="C465" s="31"/>
+      <c r="D465" s="31"/>
+    </row>
+    <row r="466" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0"/>
+      <c r="B466" s="60"/>
+      <c r="C466" s="60"/>
+      <c r="D466" s="60"/>
+    </row>
+    <row r="467" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B467" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C467" s="23"/>
+      <c r="D467" s="23"/>
+    </row>
+    <row r="468" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B468" s="31"/>
+      <c r="C468" s="31"/>
+      <c r="D468" s="31"/>
+    </row>
+    <row r="469" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0"/>
+      <c r="B469" s="60"/>
+      <c r="C469" s="60"/>
+      <c r="D469" s="60"/>
+    </row>
+    <row r="470" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B470" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C470" s="23"/>
+      <c r="D470" s="23"/>
+    </row>
+    <row r="471" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A471" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B471" s="31"/>
+      <c r="C471" s="31"/>
+      <c r="D471" s="31"/>
+    </row>
+    <row r="472" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0"/>
+      <c r="B472" s="60"/>
+      <c r="C472" s="60"/>
+      <c r="D472" s="60"/>
+      <c r="F472" s="61"/>
+    </row>
+    <row r="473" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B473" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C473" s="23"/>
+      <c r="D473" s="23"/>
+    </row>
+    <row r="474" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B474" s="31"/>
+      <c r="C474" s="31"/>
+      <c r="D474" s="31"/>
+    </row>
+    <row r="475" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0"/>
+      <c r="B475" s="60"/>
+      <c r="C475" s="60"/>
+      <c r="D475" s="60"/>
+    </row>
+    <row r="476" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B476" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="C476" s="23"/>
+      <c r="D476" s="23"/>
+    </row>
+    <row r="477" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B477" s="31"/>
+      <c r="C477" s="31"/>
+      <c r="D477" s="31"/>
+    </row>
+    <row r="478" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0"/>
+      <c r="B478" s="60"/>
+      <c r="C478" s="60"/>
+      <c r="D478" s="60"/>
+    </row>
+    <row r="479" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B479" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C479" s="23"/>
+      <c r="D479" s="23"/>
+    </row>
+    <row r="480" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B480" s="31"/>
+      <c r="C480" s="31"/>
+      <c r="D480" s="31"/>
+    </row>
+    <row r="481" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0"/>
+      <c r="B481" s="60"/>
+      <c r="C481" s="60"/>
+      <c r="D481" s="60"/>
+    </row>
+    <row r="482" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B482" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C482" s="23"/>
+      <c r="D482" s="23"/>
+    </row>
+    <row r="483" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B483" s="31"/>
+      <c r="C483" s="31"/>
+      <c r="D483" s="31"/>
+    </row>
+    <row r="484" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0"/>
+      <c r="B484" s="60"/>
+      <c r="C484" s="60"/>
+      <c r="D484" s="60"/>
+    </row>
+    <row r="485" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B485" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="C485" s="23"/>
+      <c r="D485" s="23"/>
+    </row>
+    <row r="486" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B486" s="31"/>
+      <c r="C486" s="31"/>
+      <c r="D486" s="31"/>
+    </row>
+    <row r="487" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="231">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B255:D255"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="B263:D263"/>
+    <mergeCell ref="B265:D265"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B269:D269"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="B285:D285"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B297:D297"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="B305:D305"/>
+    <mergeCell ref="B309:D309"/>
+    <mergeCell ref="B311:D311"/>
+    <mergeCell ref="B314:D314"/>
+    <mergeCell ref="B316:D316"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="B320:D320"/>
+    <mergeCell ref="B324:D324"/>
+    <mergeCell ref="B326:D326"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B330:D330"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="B340:D340"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="B347:D347"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B388:D388"/>
+    <mergeCell ref="B389:D389"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="B393:D393"/>
+    <mergeCell ref="B394:D394"/>
+    <mergeCell ref="B400:D400"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="B403:D403"/>
+    <mergeCell ref="B404:D404"/>
+    <mergeCell ref="B406:D406"/>
+    <mergeCell ref="B409:D409"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B424:D424"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B434:D434"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="B446:D446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="B449:D449"/>
+    <mergeCell ref="B450:D450"/>
+    <mergeCell ref="B452:D452"/>
+    <mergeCell ref="B453:D453"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="B456:D456"/>
+    <mergeCell ref="B458:D458"/>
+    <mergeCell ref="B459:D459"/>
+    <mergeCell ref="B461:D461"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="B465:D465"/>
+    <mergeCell ref="B467:D467"/>
+    <mergeCell ref="B468:D468"/>
+    <mergeCell ref="B470:D470"/>
+    <mergeCell ref="B471:D471"/>
+    <mergeCell ref="B473:D473"/>
+    <mergeCell ref="B474:D474"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="B477:D477"/>
+    <mergeCell ref="B479:D479"/>
+    <mergeCell ref="B480:D480"/>
+    <mergeCell ref="B482:D482"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B485:D485"/>
+    <mergeCell ref="B486:D486"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B303 B334" type="list">
+      <formula1>"Lustre: Lustre parallel file system.,GPFS: IBM GPFS (also known as IBM Spectral Scale.,isilon: The EMC scaleout NAS solution.,NFS: Generic Network File System.,S3: Object file system exposing the AWS S3 interface.,PanFS: Panasas Parallel File system.,Othe"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B381 B413" type="list">
+      <formula1>"ALL,SOME"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B426 B429 B432 B435 B438 B441 B444 B447 B450 B453 B456 B459 B462 B465 B468 B471 B474 B477 B480 B483 B486" type="list">
+      <formula1>"ALL,EXPERIMENT 1 INSTITUTE INVOLVED IN FROM THIS MIP,EXPERIMENT 2 [AS ABOVE],...,...,...,EXPERIMENT  N [FINAL ONE POSSIBLE FOR GIVEN INSTITUTE AND MIP]"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B391 B394 B401 B404" type="list">
+      <formula1>"YES,NO"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="true"/>
+  </sheetPr>
+  <dimension ref="A1:F1048576"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E469" activeCellId="0" sqref="E469"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/cmip6/machines/cmip6_ncc_machines.xlsx
+++ b/cmip6/machines/cmip6_ncc_machines.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="321">
   <si>
     <t xml:space="preserve">ES-DOC CMIP6 Institute Machines</t>
   </si>
@@ -1028,6 +1028,47 @@
   <si>
     <t xml:space="preserve">all</t>
   </si>
+  <si>
+    <t xml:space="preserve">Vilje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilje is a cluster system procured by NTNU, in cooperation with the Norwegian
+Meteorological Institute and UNINETT Sigma in 2012. Vilje is used for numerical
+weather prediction in operational forecasting by met.no, as well as for research
+in a broad range of topics at NTNU and other Norwegian universities, colleges
+and research institutes.
+Vilje is a distributed memory system that consists of 1440 nodes interconnected
+with a high-bandwidth low-latency switch network (FDR Infiniband). Each node has
+two 8-core Intel Sandy Bridge (2.6 Ghz) and 32 GB memory. The total number of
+cores is 23040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sigma2.no/systems#vilje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Altix 8600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilje is a distributed memory system that consists of 1440 nodes interconnected
+with a high-bandwidth low-latency switch network (FDR Infiniband). Each node has
+two 8-core Intel Sandy Bridge (2.6 Ghz) and 32 GB memory. The total number of
+cores is 23040.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 GiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel Sandy Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some</t>
+  </si>
 </sst>
 </file>
 
@@ -1038,7 +1079,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -1265,6 +1306,11 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1385,7 +1431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1644,6 +1690,10 @@
     </xf>
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6771,7 +6821,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A365" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A365" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A422" activeCellId="0" sqref="A422"/>
     </sheetView>
   </sheetViews>
@@ -11642,8 +11692,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A463" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B470" activeCellId="0" sqref="B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11762,7 +11812,9 @@
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="26" t="s">
+        <v>311</v>
+      </c>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="0"/>
@@ -11918,7 +11970,9 @@
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
+      <c r="B27" s="31" t="s">
+        <v>297</v>
+      </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="0"/>
@@ -11958,7 +12012,9 @@
     </row>
     <row r="31" customFormat="false" ht="148.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
-      <c r="B31" s="31"/>
+      <c r="B31" s="31" t="s">
+        <v>312</v>
+      </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="0"/>
@@ -12016,7 +12072,9 @@
     </row>
     <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="B37" s="26"/>
+      <c r="B37" s="26" t="s">
+        <v>313</v>
+      </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="0"/>
@@ -12076,7 +12134,9 @@
       <c r="A43" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="31" t="n">
+        <v>2012</v>
+      </c>
       <c r="C43" s="31"/>
       <c r="D43" s="31"/>
       <c r="E43" s="0"/>
@@ -12094,7 +12154,9 @@
       <c r="A45" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="31"/>
+      <c r="B45" s="31" t="s">
+        <v>314</v>
+      </c>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
       <c r="E45" s="0"/>
@@ -12134,7 +12196,9 @@
     </row>
     <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>300</v>
+      </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="0"/>
@@ -12222,7 +12286,9 @@
     </row>
     <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="26" t="s">
+        <v>315</v>
+      </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="0"/>
@@ -12262,7 +12328,9 @@
     </row>
     <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
-      <c r="B62" s="26"/>
+      <c r="B62" s="26" t="s">
+        <v>316</v>
+      </c>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="0"/>
@@ -12420,9 +12488,11 @@
     </row>
     <row r="78" customFormat="false" ht="221.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
+      <c r="B78" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
     </row>
@@ -12558,7 +12628,9 @@
     </row>
     <row r="92" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="0"/>
-      <c r="B92" s="26"/>
+      <c r="B92" s="26" t="n">
+        <v>1440</v>
+      </c>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
       <c r="E92" s="0"/>
@@ -12598,7 +12670,9 @@
     </row>
     <row r="96" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="0"/>
-      <c r="B96" s="26"/>
+      <c r="B96" s="26" t="s">
+        <v>318</v>
+      </c>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
       <c r="E96" s="0"/>
@@ -12638,7 +12712,9 @@
     </row>
     <row r="100" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="0"/>
-      <c r="B100" s="26"/>
+      <c r="B100" s="26" t="n">
+        <v>16</v>
+      </c>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
       <c r="E100" s="0"/>
@@ -13262,7 +13338,9 @@
     </row>
     <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="0"/>
-      <c r="B162" s="51"/>
+      <c r="B162" s="51" t="s">
+        <v>319</v>
+      </c>
       <c r="C162" s="0"/>
       <c r="D162" s="0"/>
       <c r="E162" s="0"/>
@@ -13302,7 +13380,9 @@
     </row>
     <row r="166" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0"/>
-      <c r="B166" s="51"/>
+      <c r="B166" s="51" t="n">
+        <v>2.6</v>
+      </c>
       <c r="C166" s="0"/>
       <c r="D166" s="0"/>
       <c r="E166" s="0"/>
@@ -13342,7 +13422,9 @@
     </row>
     <row r="170" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="0"/>
-      <c r="B170" s="51"/>
+      <c r="B170" s="51" t="n">
+        <v>2</v>
+      </c>
       <c r="C170" s="0"/>
       <c r="D170" s="0"/>
       <c r="E170" s="0"/>
@@ -15312,7 +15394,9 @@
     </row>
     <row r="381" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="30"/>
-      <c r="B381" s="31"/>
+      <c r="B381" s="31" t="s">
+        <v>320</v>
+      </c>
       <c r="C381" s="31"/>
       <c r="D381" s="31"/>
     </row>
@@ -15568,7 +15652,9 @@
     </row>
     <row r="413" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="30"/>
-      <c r="B413" s="31"/>
+      <c r="B413" s="31" t="s">
+        <v>225</v>
+      </c>
       <c r="C413" s="31"/>
       <c r="D413" s="31"/>
     </row>
@@ -15998,11 +16084,13 @@
       <c r="C467" s="23"/>
       <c r="D467" s="23"/>
     </row>
-    <row r="468" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B468" s="31"/>
+      <c r="B468" s="31" t="s">
+        <v>309</v>
+      </c>
       <c r="C468" s="31"/>
       <c r="D468" s="31"/>
     </row>
@@ -16459,6 +16547,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" location="vilje" display="https://www.sigma2.no/systems#vilje"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
